--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1862292.39396212</v>
+        <v>-1864970.27936098</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>165.2550987939924</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>53.09557117434048</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>204.8718184089571</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>129.4388943593363</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249216</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>54.30060623883852</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>357.7192528929198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.9419816319483</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>150.2552730352115</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.30696647914831</v>
+        <v>80.52402110376445</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>125.6123723105399</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>250.1726568760295</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819382</v>
+        <v>33.01627976943975</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>113.872594512978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>66.12869588327256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>45.17596778974989</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>215.0116296712233</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>38.95525409458221</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,22 +2290,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>190.4281593935562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3320,13 +3320,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>874.1302800394526</v>
+        <v>1124.557533966791</v>
       </c>
       <c r="C2" t="n">
-        <v>874.1302800394526</v>
+        <v>1124.557533966791</v>
       </c>
       <c r="D2" t="n">
-        <v>515.864581432702</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>515.864581432702</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>104.8786766430945</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2024.335210340466</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1650.869452079386</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1260.730120103574</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1739.734756450701</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>1570.798573522794</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1420.681934110458</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1272.768840528065</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1125.878893030155</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>2272.922158363194</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>2142.175800424471</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y4" t="n">
-        <v>1921.38322128094</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854568</v>
+        <v>1587.556048344951</v>
       </c>
       <c r="C5" t="n">
-        <v>728.3028554854568</v>
+        <v>1218.59353140454</v>
       </c>
       <c r="D5" t="n">
-        <v>728.3028554854568</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>728.3028554854568</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1587.556048344951</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>932.4978103100993</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1295.759829269319</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>646.5617288506706</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>646.5617288506706</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>646.5617288506706</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>498.6486352682775</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>351.7586877703671</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.467639269233</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X7" t="n">
-        <v>1413.467639269233</v>
+        <v>828.2101936809104</v>
       </c>
       <c r="Y7" t="n">
-        <v>1192.675060125703</v>
+        <v>828.2101936809104</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386631</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>1669.181684446219</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450753</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.8811108217975</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1800.413363936432</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1800.413363936432</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1545.728875730545</v>
+        <v>1171.311937832243</v>
       </c>
       <c r="W10" t="n">
-        <v>1256.311705693585</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="X10" t="n">
-        <v>1028.322154795567</v>
+        <v>881.8947677952821</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.5295756520372</v>
+        <v>661.1021886517519</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1640.408734861922</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1350.991564824961</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.991564824961</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.198985681431</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>122.530400105842</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,13 +6403,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6646,16 +6646,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,40 +7807,40 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380738</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>217.4787428694882</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>67.67183971237249</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>358.4521315986135</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>96.27076102970082</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>216.8034931298456</v>
       </c>
     </row>
     <row r="5">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>146.8157004124976</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>138.26504881085</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>61.70948393027183</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>111.8681131589324</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1071837.526758362</v>
+        <v>1071837.526758363</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>81152.27790359156</v>
       </c>
       <c r="C2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="D2" t="n">
         <v>102630.2212330354</v>
@@ -26326,22 +26326,22 @@
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330356</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036143</v>
+        <v>187032.8958036144</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38655.05046517603</v>
+        <v>38655.05046517609</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26430,34 +26430,34 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675661</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675661</v>
       </c>
       <c r="J4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="K4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985004</v>
+        <v>17328.05961985008</v>
       </c>
       <c r="O4" t="n">
+        <v>17328.05961985008</v>
+      </c>
+      <c r="P4" t="n">
         <v>17328.05961985006</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17328.05961985005</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1165192.328577349</v>
+        <v>-1165621.887443938</v>
       </c>
       <c r="C6" t="n">
         <v>-127033.8248989118</v>
       </c>
       <c r="D6" t="n">
-        <v>-286455.0948968036</v>
+        <v>-286455.0948968041</v>
       </c>
       <c r="E6" t="n">
-        <v>-334978.8670267681</v>
+        <v>-335013.6049522036</v>
       </c>
       <c r="F6" t="n">
-        <v>-9566.405219412889</v>
+        <v>-9601.143144848611</v>
       </c>
       <c r="G6" t="n">
-        <v>-9566.405219413005</v>
+        <v>-9601.143144848596</v>
       </c>
       <c r="H6" t="n">
-        <v>-9566.405219412947</v>
+        <v>-9601.143144848655</v>
       </c>
       <c r="I6" t="n">
-        <v>-9566.405219412947</v>
+        <v>-9601.143144848596</v>
       </c>
       <c r="J6" t="n">
-        <v>-204894.8500443442</v>
+        <v>-204894.8500443443</v>
       </c>
       <c r="K6" t="n">
-        <v>-17861.95424072999</v>
+        <v>-17861.95424072989</v>
       </c>
       <c r="L6" t="n">
-        <v>-66155.92424892074</v>
+        <v>-66155.92424892084</v>
       </c>
       <c r="M6" t="n">
-        <v>-102916.9821762419</v>
+        <v>-102916.9821762418</v>
       </c>
       <c r="N6" t="n">
-        <v>-17861.95424072997</v>
+        <v>-17861.95424073002</v>
       </c>
       <c r="O6" t="n">
-        <v>-37289.67223436182</v>
+        <v>-37289.67223436179</v>
       </c>
       <c r="P6" t="n">
         <v>-17861.95424072999</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>297.601052058635</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>144.3691503084559</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>300.3824353818445</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49.15679284879167</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.88999854998904</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>16.05132700959265</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>262.3760751415347</v>
+        <v>274.1590205169185</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>93.93657696562927</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.964986447798481</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30040,13 +30040,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,16 +32081,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,31 +32312,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>744.7005224868051</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,10 +32965,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>463.4789474089069</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,19 +33503,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>677.7372574190229</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34369,13 +34369,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>577.7882979947786</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,31 +35960,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>613.3588104034718</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>535.1410129745784</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
